--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>62.47264738015466</v>
+        <v>48.5994456352491</v>
       </c>
       <c r="R2">
-        <v>562.253826421392</v>
+        <v>437.3950107172419</v>
       </c>
       <c r="S2">
-        <v>0.0001228642906285727</v>
+        <v>0.0001607656997993244</v>
       </c>
       <c r="T2">
-        <v>0.0001291066956909114</v>
+        <v>0.0001720698521172423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>2941.106199362779</v>
+        <v>3106.42852653073</v>
       </c>
       <c r="R3">
-        <v>26469.95579426501</v>
+        <v>27957.85673877657</v>
       </c>
       <c r="S3">
-        <v>0.005784242256440625</v>
+        <v>0.01027598462115127</v>
       </c>
       <c r="T3">
-        <v>0.006078124091094717</v>
+        <v>0.01099853486364127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>1857.38757290526</v>
+        <v>2291.696322948514</v>
       </c>
       <c r="R4">
-        <v>16716.48815614733</v>
+        <v>20625.26690653662</v>
       </c>
       <c r="S4">
-        <v>0.003652904369149948</v>
+        <v>0.007580871721284357</v>
       </c>
       <c r="T4">
-        <v>0.003838498642388831</v>
+        <v>0.008113916573183512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>656.255479140764</v>
+        <v>488.4065535588823</v>
       </c>
       <c r="R5">
-        <v>3937.532874844584</v>
+        <v>2930.439321353294</v>
       </c>
       <c r="S5">
-        <v>0.001290650665484002</v>
+        <v>0.001615636152699656</v>
       </c>
       <c r="T5">
-        <v>0.0009041501093574019</v>
+        <v>0.001152825817187439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>2212.352763416667</v>
+        <v>2868.278091227299</v>
       </c>
       <c r="R6">
-        <v>19911.17487075001</v>
+        <v>25814.50282104569</v>
       </c>
       <c r="S6">
-        <v>0.004351010630993342</v>
+        <v>0.009488189186684407</v>
       </c>
       <c r="T6">
-        <v>0.004572073810947812</v>
+        <v>0.01015534602375465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>613.7094459231121</v>
+        <v>452.015735596557</v>
       </c>
       <c r="R7">
-        <v>5523.385013308008</v>
+        <v>4068.141620369012</v>
       </c>
       <c r="S7">
-        <v>0.001206975834825121</v>
+        <v>0.001495256275120563</v>
       </c>
       <c r="T7">
-        <v>0.001268299039662643</v>
+        <v>0.001600394402901452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>28892.39902110088</v>
@@ -948,10 +948,10 @@
         <v>260031.5911899079</v>
       </c>
       <c r="S8">
-        <v>0.05682237361711177</v>
+        <v>0.09557530310880039</v>
       </c>
       <c r="T8">
-        <v>0.05970936601259849</v>
+        <v>0.1022956283120101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>18246.3261288694</v>
+        <v>21314.70401856134</v>
       </c>
       <c r="R9">
-        <v>164216.9351598246</v>
+        <v>191832.336167052</v>
       </c>
       <c r="S9">
-        <v>0.03588485537933641</v>
+        <v>0.07050848549338441</v>
       </c>
       <c r="T9">
-        <v>0.0377080686314151</v>
+        <v>0.07546625111576422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>6446.824384385286</v>
+        <v>4542.591889504499</v>
       </c>
       <c r="R10">
-        <v>38680.94630631171</v>
+        <v>27255.55133702699</v>
       </c>
       <c r="S10">
-        <v>0.01267890089521162</v>
+        <v>0.01502677560357285</v>
       </c>
       <c r="T10">
-        <v>0.008882054561710788</v>
+        <v>0.01072225007835753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>21733.38005608859</v>
+        <v>26677.39959488841</v>
       </c>
       <c r="R11">
-        <v>195600.4205047973</v>
+        <v>240096.5963539957</v>
       </c>
       <c r="S11">
-        <v>0.0427428072209525</v>
+        <v>0.08824814272341786</v>
       </c>
       <c r="T11">
-        <v>0.04491445461182256</v>
+        <v>0.0944532626486512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>706.9258890972009</v>
+        <v>566.413086875741</v>
       </c>
       <c r="R12">
-        <v>6362.333001874807</v>
+        <v>5097.717781881669</v>
       </c>
       <c r="S12">
-        <v>0.001390303621397221</v>
+        <v>0.001873679732285434</v>
       </c>
       <c r="T12">
-        <v>0.001460941219351818</v>
+        <v>0.002005426498636643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>33280.87094279747</v>
+        <v>36204.56463797505</v>
       </c>
       <c r="R13">
-        <v>299527.8384851773</v>
+        <v>325841.0817417755</v>
       </c>
       <c r="S13">
-        <v>0.06545313463355529</v>
+        <v>0.1197637564353691</v>
       </c>
       <c r="T13">
-        <v>0.06877863284700791</v>
+        <v>0.128184879514492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>21017.76403654133</v>
+        <v>26709.08631767564</v>
       </c>
       <c r="R14">
-        <v>189159.876328872</v>
+        <v>240381.7768590807</v>
       </c>
       <c r="S14">
-        <v>0.04133541281249899</v>
+        <v>0.08835296157673293</v>
       </c>
       <c r="T14">
-        <v>0.04343555426836475</v>
+        <v>0.09456545178235037</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>7426.033752715052</v>
+        <v>5692.243194045448</v>
       </c>
       <c r="R15">
-        <v>44556.20251629032</v>
+        <v>34153.45916427269</v>
       </c>
       <c r="S15">
-        <v>0.01460470153696428</v>
+        <v>0.01882979216238065</v>
       </c>
       <c r="T15">
-        <v>0.01023115149971783</v>
+        <v>0.0134358658048063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>25034.46724064705</v>
+        <v>33428.98723296899</v>
       </c>
       <c r="R16">
-        <v>225310.2051658235</v>
+        <v>300860.8850967209</v>
       </c>
       <c r="S16">
-        <v>0.04923502024925275</v>
+        <v>0.1105822187031907</v>
       </c>
       <c r="T16">
-        <v>0.05173651957078799</v>
+        <v>0.1183577469746723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>254.392784300004</v>
+        <v>240.7726341805259</v>
       </c>
       <c r="R17">
-        <v>1526.356705800024</v>
+        <v>1444.635805083156</v>
       </c>
       <c r="S17">
-        <v>0.0005003115810644571</v>
+        <v>0.0007964696000253169</v>
       </c>
       <c r="T17">
-        <v>0.0003504873803807839</v>
+        <v>0.0005683152831037379</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>11976.3804857672</v>
+        <v>15389.94878336332</v>
       </c>
       <c r="R18">
-        <v>71858.28291460323</v>
+        <v>92339.69270017992</v>
       </c>
       <c r="S18">
-        <v>0.02355382002186611</v>
+        <v>0.05090954955746758</v>
       </c>
       <c r="T18">
-        <v>0.01650035096101592</v>
+        <v>0.03632615114062896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>7563.406002635546</v>
+        <v>11353.58136714908</v>
       </c>
       <c r="R19">
-        <v>45380.43601581327</v>
+        <v>68121.48820289448</v>
       </c>
       <c r="S19">
-        <v>0.01487487007865944</v>
+        <v>0.03755735132078193</v>
       </c>
       <c r="T19">
-        <v>0.01042041488682267</v>
+        <v>0.0267987839684255</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>2672.316054334286</v>
+        <v>2419.676416352223</v>
       </c>
       <c r="R20">
-        <v>10689.26421733715</v>
+        <v>9678.70566540889</v>
       </c>
       <c r="S20">
-        <v>0.005255615539280442</v>
+        <v>0.008004226535469876</v>
       </c>
       <c r="T20">
-        <v>0.00245450634147074</v>
+        <v>0.003807573044334163</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>9008.847918907908</v>
+        <v>14210.09771943149</v>
       </c>
       <c r="R21">
-        <v>54053.08751344746</v>
+        <v>85260.5863165889</v>
       </c>
       <c r="S21">
-        <v>0.01771760530975874</v>
+        <v>0.04700663298151379</v>
       </c>
       <c r="T21">
-        <v>0.01241185954245975</v>
+        <v>0.03354125245934477</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>2472.089711640279</v>
+        <v>361.0531556295384</v>
       </c>
       <c r="R22">
-        <v>22248.80740476251</v>
+        <v>3249.478400665846</v>
       </c>
       <c r="S22">
-        <v>0.004861832522361785</v>
+        <v>0.00119435443081345</v>
       </c>
       <c r="T22">
-        <v>0.005108849192498943</v>
+        <v>0.001278334809864132</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>116381.7875692555</v>
+        <v>23078.16082223072</v>
       </c>
       <c r="R23">
-        <v>1047436.0881233</v>
+        <v>207703.4474000765</v>
       </c>
       <c r="S23">
-        <v>0.2288868228165429</v>
+        <v>0.0763419546492993</v>
       </c>
       <c r="T23">
-        <v>0.2405159483675297</v>
+        <v>0.08170989746720432</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>73498.2252563575</v>
+        <v>17025.38328019613</v>
       </c>
       <c r="R24">
-        <v>661484.0273072176</v>
+        <v>153228.4495217652</v>
       </c>
       <c r="S24">
-        <v>0.1445481772787817</v>
+        <v>0.05631952425826098</v>
       </c>
       <c r="T24">
-        <v>0.1518922824616675</v>
+        <v>0.06027960082610317</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>25968.52360552914</v>
+        <v>3628.451417245838</v>
       </c>
       <c r="R25">
-        <v>155811.1416331748</v>
+        <v>21770.70850347503</v>
       </c>
       <c r="S25">
-        <v>0.05107201895974435</v>
+        <v>0.01200282274121845</v>
       </c>
       <c r="T25">
-        <v>0.03577790083906209</v>
+        <v>0.008564529774900033</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>87544.46520700245</v>
+        <v>21308.90265360488</v>
       </c>
       <c r="R26">
-        <v>787900.1868630222</v>
+        <v>191780.1238824439</v>
       </c>
       <c r="S26">
-        <v>0.1721727678781377</v>
+        <v>0.07048929472927536</v>
       </c>
       <c r="T26">
-        <v>0.1809204044151725</v>
+        <v>0.07544571096356517</v>
       </c>
     </row>
   </sheetData>
